--- a/biology/Médecine/Foramen_sternal/Foramen_sternal.xlsx
+++ b/biology/Médecine/Foramen_sternal/Foramen_sternal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen sternal ou perforation sternale (en anglais = sternal foramen) est une variante anatomique formant un trou au milieu du corps du sternum. 
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être situé à différents niveaux mais le plus souvent entre la troisième et la quatrième sternèbre[1]. Son aspect parfaitement rond a souvent fait comparer son aspect à une blessure par balle. Il est désormais bien établi qu’il s’agit d’un défaut d’ossification lors de la formation du sternum[1],[2].
-La prévalence du foramen sternal est souvent stable dans les diverses études, autour de 5 % de la population[3],[4],[5].
-La formation a été décrite chez des enfants[6]. Il a déjà été remarqué des liens familiaux entre un individu porteur de foramen sternal et un autre porteur d’une côte bifide[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être situé à différents niveaux mais le plus souvent entre la troisième et la quatrième sternèbre. Son aspect parfaitement rond a souvent fait comparer son aspect à une blessure par balle. Il est désormais bien établi qu’il s’agit d’un défaut d’ossification lors de la formation du sternum,.
+La prévalence du foramen sternal est souvent stable dans les diverses études, autour de 5 % de la population.
+La formation a été décrite chez des enfants. Il a déjà été remarqué des liens familiaux entre un individu porteur de foramen sternal et un autre porteur d’une côte bifide.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Pathogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anomalie, parfaitement banale et sans conséquence, peut se révéler dangereuse en cas de perforation, par exemple lors de traitement par acupuncture, avec des lésions de la plèvre ou des perforations[8]. Il a même été décrit un cas mortel par hémopéricarde[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anomalie, parfaitement banale et sans conséquence, peut se révéler dangereuse en cas de perforation, par exemple lors de traitement par acupuncture, avec des lésions de la plèvre ou des perforations. Il a même été décrit un cas mortel par hémopéricarde.
 </t>
         </is>
       </c>
